--- a/PersonsReport.xlsx
+++ b/PersonsReport.xlsx
@@ -375,10 +375,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -406,6 +418,9 @@
         <v>exitEscortedBy</v>
       </c>
       <c r="I1" t="str">
+        <v>numberOfDays</v>
+      </c>
+      <c r="J1" t="str">
         <v>timeOnAirSide</v>
       </c>
     </row>
@@ -434,13 +449,71 @@
       <c r="H2" t="str">
         <v>љупчо Врдинов</v>
       </c>
-      <c r="I2" t="str">
-        <v>00:00:08.1766667</v>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2" t="str">
+        <v>00:00:08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>МАКПЕТРОЛ А.Д.</v>
+      </c>
+      <c r="B3" t="str">
+        <v>asdasd asdasd</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Службен 1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Viktor Nikolovski</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Лазо Врдинов</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3" t="str">
+        <v>16:19:00</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>МАКПЕТРОЛ А.Д.</v>
+      </c>
+      <c r="B4" t="str">
+        <v>dfsdfsd sdfsdfsdf</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Службен 1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Viktor Nikolovski</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Рубинчо Негриоски</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Службен 1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Viktor Nikolovski</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Лазо Негриоски</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4" t="str">
+        <v>12:17:07</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
   </ignoredErrors>
 </worksheet>
 </file>